--- a/500all/speech_level/speeches_CHRG-114hhrg97418.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97418.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="178">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>412468</t>
   </si>
   <si>
-    <t>Tom Marino</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Marino. The Subcommittee on Regulatory Reform, Commercial and Antitrust Law will come to order. My colleagues are on their way. But I usually give at least 5 minutes. We've given 7. So we'll get started. I know your schedules are as hectic as ours.    Without objection, the Chair is authorized to declare a recess of the Committee at any time.    We welcome everyone to today's hearing on H.R. 3438, the ``Require Evaluation before Implementing Executive Wishlists (REVIEW) Act of 2015,'' and H.R. 2631, the ``Regulatory Predictability for Business Growth Act of 2015.'' And I now recognize myself for an opening statement.    Today, this Subcommittee continues its overall regulatory reform agenda by examining the targeted reforms to the U.S. regulatory process contained in two, straightforward bills. I'm honored that we can take a good look at H.R. 2631, the ``Regulatory Predictability for Business Growth Act of 2015,'' a bill offered by my colleague, Congressman Steve Russell of Oklahoma.    H.R. 2631 addresses a recent Supreme Court decision that upended the process by which agencies can change its own interpretive rules. How to address this change is an important question for us to consider today.    Today this Subcommittee will also examine my bill, the REVIEW Act. Over the last decade, our Nation has faced a costly and unprecedented regulatory onslaught. During this period, the size and scope of Federal regulation has ballooned to epic proportions. Longstanding Executive Branch policies have mandated additional scrutiny for ``significant regulatory action,'' i.e., those rules with an annual effect on the economy of $100 million or more.    But regulatory uberous has flown past these commonsense concerns as agencies more frequently propose mega-rules with annual cost in excess of $1 billion. But as these monstrous regulations become more frequent, an average of three per year during the Obama administration, and six in 2014 alone, it almost seems that nothing can curtail these potential to damage our economy. This bill is one more step in this Subcommittee's continued effort to put forth commonsense regulatory reform measures for the benefit of American workers.    The REVIEW Act presents a simple premise that massive $1 billion regulations should face full and thorough review by the courts before they become effective and force compliance costs on businesses across the country. It achieves this goal through a simple and straightforward mechanism, a mandatory stay of any $1 billion rule if it is challenged in court within 60 days of its promulgation.    Some observers might insist that the reforms in this bill are unnecessary. But just this summer, in the Supreme Court's decision in Michigan v. EPA, we saw firsthand that irreparable harm can occur as a result of expansive, costly, and poorly-crafted regulation.    In this case, the court found that the EPA has promulgated its Utility MACT rule through a faulty process and on legally infirm grounds because it chose not to consider costs when promulgating the rule. In this case, the costs of the rule were estimated by the EPA itself as $9.6 billion per year. In return the EPA's best estimate of potential benefits were in the range of a mere $4 million to $6 million annually.    As Justice Antonin Scalia wrote in his opinion for the court, ``One would not say that is even rational, never mind appropriate, to impose billions of dollars in economic cost in return for a few dollars in health or environmental benefits.'' Unfortunately for workers, homeowners, and taxpayers across the country, the Utility MACT rule remained in effect as litigation took years to work itself to a final decision at the Supreme Court.    Over this time, electricity providers were forced to close power plants as they faced uncertain compliance burdens. Jobs were lost, and electricity costs to consumers rose as a result. Until recently, regulations with $1 billion annual price tags were a rare occurrence. Since 2006, however, we have seen 26 in total.    The REVIEW Act is a step in the right direction to address this growing concern. It also provides a bit of certainty to the American people that massive $1 billion regulations must pass legal muster before their costs are passed on. I thank the Chairman for joining me on this bill, and I look forward to hearing from today's esteemed panel.    [The bills, H.R. 3438 and H.R. 2631, follow:]                                                                  __________                                                              </t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>412199</t>
   </si>
   <si>
-    <t>Henry C. "Hank" Johnson, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Johnson. Thank you, Mr. Chairman.    Today's hearing provides this Subcommittee with an important opportunity to consider two regulatory reform proposals that would affect divergent aspects of the rulemaking system. The first of these proposals is H.R. 2631, the ``Regulatory Predictability for Business Growth Act of 2015,'' which would require agencies to undertake notice and comment under section 553, the Administrative Procedures Act, prior to revising interpretive rules that are older than 1 year.    An interpretive rule is any nonlegislative rule issued by an agency to clarify its views on a subject matter. These rules are usually issued in direct response to requests by regulated firms that want more clarity and transparency in a subject area. Because the rule has no binding legal effect, the parties are not bound by an agency's expression of its current rules.    Simply put, H.R. 2631 would impose immense procedural and analytical burdens on agencies seeking to provide regulatory clarity through interpretive rules. Not only would this requirement severely burden agencies' existing practice of issuing timely, interpretive rules, but it would also wreak havoc on the entire rulemaking system.    As Donald Elliott, a professor of law at Yale Law School, noted in 1992, ``Imposing a notice-and-comment requirement on nonlegislative rules would literally grind the modern administrative process to a halt.''    In an Amicus brief filed in Perez v. Mortgage Bankers, where the Supreme Court unanimously rejected a judicial doctrine requiring notice and comment for revisions to longstanding interpretive rules, a group of leading administrative law experts similarly argued that this requirement would be ``burdensome, costly, and time consuming for agencies.''    The second regulatory reform proposal before us today is H.R. 3438, the ``Require Evaluation before Implementing Executive Wishlists Act of 2015,'' or otherwise known as the ``REVIEW Act,'' which would automatically stay high-impact rules that a party challenges within 60 days of an agency's adoption of the rule. Under current law, both courts and the agency issuing a rule may stay the effective date of a rule.    While agencies have broad discretion in postponing the effective date of a rule, a court considers several factors in deciding whether to stay a rule, including whether the party is likely to succeed on the merits. Unlike current law, the REVIEW Act would require that agencies automatically delay the effective date for rules exceeding $1 billion in costs, regardless of whether the party challenging the rule has any likelihood of success on the merits, is actually harmed by the rule, or whether staying the rule would be contrary to the public interest.    This guarantees that virtually every regulated firm would challenge high-impact rules through frivolous litigation, creating further delays for these rules, which, in many cases, have already taken years to promulgate. But the bill wouldn't just apply to these rules; rather, it would likely apply to transfer rules, which involve the transfer of funds for budgetary programs as authorized by Congress, such as transfer rules involving the Medicare program or the Federal Pell Grant program.    In closing, I look forward to our esteemed panel's testimony today, and I yield back.</t>
   </si>
   <si>
@@ -76,18 +70,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Goodlatte</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Goodlatte. Thank you, Mr. Chairman.    Today's hearing continues the Judiciary Committee's efforts to deliver urgently needed reforms of Washington's regulatory system--a system that virtually every day places new obstacles in the path of American jobs and economic growth.    We consider today two bills: Subcommittee Chairman Marino's REVIEW Act; and Representative Russell's ``Regulatory Predictable for Business Growth Act.'' These are new bills developed in response to Supreme Court decisions issued during the Court's 2014 term.    The REVIEW Act contains a simple common-sense reform responding to a problem highlighted by the court's decision in the case of Michigan v. EPA. The problem is that, too often, new regulations that impose enormous costs on our society are successfully challenged in court, but are not stayed while litigation is pending.    When these regulations are ultimately overturned, but compliance with them has been required while litigation is pending, there can be no question that large amounts of precious resources have been wasted--resources that could've been spent creating jobs, investing in development, and growing America's economy for the benefit of all.    The REVIEW Act solves this problem with a simple bright-line test that says, if a new regulation imposes $1 billion or more in annual costs, it will not go into effect until after litigation challenging it is resolved. Of course, if the regulation is not challenged, it may go into effect as normal.    This is a balanced approach. And, it provides a healthy incentive for agencies to promulgate effective but lower-cost regulations that are more legally sound to begin with.    The other bill we are examining, the Regulatory Predictability for Business Growth Act, responds to the case of Perez v. Mortgage Bankers Association. The bill would make sure that, notwithstanding the court's decision finding a current gap in the provisions of the Administrative Procedures Act, agencies will provide notice to the public and an opportunity for comment before they change longstanding interpretive regulations.    This is only fair. Job creators must live day-to-day with the interpretations agencies espouse, and the broader public relies on agencies' good-faith adherence to sound and settled interpretations of law. Both deserve notice and a chance to comment on changes in interpretive rules before those changes are made.    These are simple but powerful reforms that will help to improve Americans' daily lives. I urge my colleagues to consider well and support these important pieces of legislation.    I look forward to hearing the testimony of our witnesses today, and yield back. Thank you, Mr. Chairman.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Marino. Thank you, Chairman.    Mr. Conyers, the Ranking Member of the full Judiciary Committee, will be on his way shortly. And I'm going to reserve the time for his opening statement for when he gets here.    And without objection, other Members' opening statements will be made part of the record.    And I will begin by swearing in our witnesses before introducing them. If you would please stand and raise your right hand.    Do you swear that the testimony you're about to give is the truth--before this Committee--the whole truth and nothing but the truth so help you God?    Let the record reflect that all the witnesses responded in the affirmative. Please be seated.    We have a distinguished panel with us today, and I want to thank the Members for being here. Seated to my left, the first gentleman, Mr. Brady is the president and founder of Brady Homes Illinois, and the second vice chairman of the National Association of Homebuilders.    He is a second-generation homebuilder. Brady Homes Illinois is a small, single-family building and development company that since its founding by his father, William Brady, Sr., in 1962, has become one of the largest homebuilding firms in central Illinois.    Mr. Brady has served on the NAHB board of directors for more than 10 years and has also held seats on several committees and task forces, including the NAHB Federal Government Affairs Committee and the Budget and Finance Committee. Mr. Brady has been a trustee and chairman of Build-PAC, NAHB's Political Action Committee.    Outside of NAHB, Mr. Brady has worked on many boards and commissions including serving on the board of directors, on the Federal Home Loan Bank of Chicago, in the Jack Kemp Foundation. And as a member of the Bloomington Planning Commission, and the Bipartisan Policy Center Housing Commission. Mr. Brady earned his bachelor's degree in political business from Illinois Wesley University.    Welcome, sir.</t>
   </si>
   <si>
-    <t>Brady</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Brady. Thank you.</t>
   </si>
   <si>
@@ -103,9 +91,6 @@
     <t xml:space="preserve">    Mr. Marino. Mr. Noe.</t>
   </si>
   <si>
-    <t>Noe</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Noe. Thank you. Chairman Marino, Ranking Member Johnson, and Members of the Subcommittee, my name is Paul Noe, and I want to thank you for the opportunity to be here today on behalf of the American Forest and Paper Association, the American Wood Council, and their members on two bills to make important reforms to the Federal rulemaking process.    We applaud these bills because we believe they are important steps to increase regulatory transparency and fairness, harmonize regulatory requirements, avoid wasting limited resources, and increase regulatory certainty. H.R. 2631 would require public notice and comment when agencies issue an interpretive rule that conflicts with, or is inconsistent with a, previous longstanding interpretive guidance.    This is consistent with the principles of due process, transparency, and accountability that are the foundation of the APA. After the Supreme Court's Mortgage Bankers decision, it is clear that an agency can reverse the binding policy reflected in a longstanding, definitive interpretive rule by simply issuing a contrary interpretive rule. In other words, an agency can change its binding policy from ``X'' to ``not X'' without having provided the public notice and an opportunity for comment.    As a practical matter, by regulating through interpretive guidance rather than legislative rules, an agency often can avoid not only public review but OMB review, court review, and congressional oversight. That is not good government. As the D.C. circuit put it, the phenomenon we see in this case is familiar.    Congress passes a broadly-worded statute. The agency follows with regulations containing broad language, open-ended phrases, ambiguous standards, and the like. Then as years pass, the agency issues circulars or guidance or memoranda explaining, interpreting, defining, and often expanding the commands and the regulations. Law is made without notice and comment, without public participation, without publication in the Federal Register, or the code of Federal regulations.    Many authorities have gone beyond H.R. 2631 to recommend pre-adoption notice and comment for all significant guidance, including the administrative conference of the United States, the U.S. Food and Drug Administration, and the American Bar Association. H.R. 2631 has a more modest scope by proposing pre-adoption notice and comment for interpretive rules, not policy statements, that conflict with or are inconsistent with prior interpretive guidance that have been in effect for a year or more. This bill is a good step toward addressing the problem of regulation by guidance.    The other bill, H.R. 3438 would, pending judicial review, postpone the effective date of high-impact rules that may impose an annual cost on the economy of not less than $1 billion. This bill would promote certainty, efficiency, and legal integrity in the regulatory process.    All too often regulations requiring major capital investments are struck down in court, and this is an increasing trend, I believe. H.R. 3438 would avoid wasting resources, stranding assets, and ensure that rules are legally sound before billions of dollars in investment are made.    One example of how this rule effects the U.S. forest products industry is EPA's Boiler MACT rules. In 2007, about $200 million in compliance investments were stranded in the paper and wood products industry when a court struck down the 2004 Boiler MACT rules just 3 months before the compliance deadline.    When the rules were reissued in 2013, the new standards had changed significantly, and previous investments proved to be the wrong approaches to achieve compliance. Wasting limited capital undermines the competitiveness of U.S. businesses and impedes growth in job creation. One suggestion I would submit for the Subcommittee to consider is to broaden the definition of high-impact rules to ensure that highly consequential rules, such as the Boiler MACT rules, are covered.    In conclusion, H.R. 2631 and H.R. 3438 take important steps to promote transparency, certainty, efficiency, and fairness in the regulatory process. We support these efforts, and we would be happy to work with the Committee as it advances these proposals through the legislative process.    Mr. Chairman, I request permission to include in the record documents referenced in my testimony. I thank you.</t>
   </si>
   <si>
@@ -124,9 +109,6 @@
     <t xml:space="preserve">    Mr. Marino. Mr. Clark.</t>
   </si>
   <si>
-    <t>Clark</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Clark. Good morning, Chairman Marino, and Ranking Member Johnson, and honorable Members of the Subcommittee.    I'm very pleased to be here today. And in addition to coming to help however I can with my testimony, I wanted to note that my wife and oldest daughter are in the room. I thought it would be a good civics lesson, especially with it being voting day in my home State of Virginia.    And also, Ranking Member Johnson, my wife lived for a long time, including when we were married 20 years ago in your district, in Stone Mountain, Georgia. And she came there after she immigrated from Korea.    So with that little introduction out of the way, I can draw a straight line, I think, between my law school experiences in front of Judge Silverman, as I noted in my written testimony, to my career here at DOJ, and to sitting here with you today. And, you know, if I were a half generation younger, I'm sure I would've had Professor Buzbee as one of my professors, so I'm honored to sit alongside of him.    Administrative law really is constitutional law. It's suffused with the separation of powers, with due process concerns, and with guaranteeing Democratic accountability. And I think both of the bills that you have before you today are excellent bills that would help to accomplish promoting those constitutional ends.    The first bill, H.R. 2631, really is the product, I think, of you trying to solve a negative synergy between a number of administrative law doctrines and current provisions in the APA that the Paralyzed Veterans case enforced, and those rules are 553(b), which is what got enforced in Mortgage Bankers, Seminole Rock deference and its potential for abuse, and Chevron.    The combination of those rules really let agencies turn on a dime and defeat reliance interests by individuals in businesses like the NAHB and their members. And by imposing this new requirement that resurrects the Paralyzed Veterans doctrine, you would help to counteract all of those negative synergies.    In addition, I think there is several other advantages, which I lay out in my written testimony. I think it advances your power to, as Congress, write the laws. The argument that we often hear from the professoriate that agency processes will be ossified, I think, has really become a tired canard at this point. You get to define the Nation's policies and legislation, not really the Executive Branch or the professoriate.    Second, I think that these bills, the first bill especially, the one that reverses Paralyzed Veterans, helps to enhance the separation of powers, because it gives time for mistakes to be corrected. It doesn't allow agencies to turn on a dime. It allows agencies that are acting closer in time to the law that they passed--that was passed that, you know, is being interpreted, and so that harmonizes agency action more with congressional will.    And third, by giving that time period and making sure that there's notice and comment, you establish that there's an adversary process, an adversary process that can inform judicial review and, thereby, also enhance the separation of powers through the process of judicial oversight. Of course, the fact that you have notice and comment enhances due process and accountability, and it helps to protect reliance interests.    In addition, it protects both public property and private property, not just private property, because many agencies regulate the actions of other Executive Branch agencies.    And third--I'm sorry, and lastly, it's not a perfect solution to the abuses of Seminole Rock deference, but it's kind of a very good second best. It's a very good first start to try to reverse those abuses.    And, you know, I note that Professor Buzbee had indicated that, you know, perhaps you might be open to seeing, you know, that bigger step of reversing Seminole Rock deference. But in the short term, I think this is a good first step toward that.    Turning to the second bill, the REVIEW Act of 2015, you know, I started my testimony with the apocrypha from Senator Dirksen of, you know, $1 billion here, $1 billion there, and pretty soon you're talking, you know, real money. I think that providing an automatic legislative stay that will be in place to allow the courts to test the legality of rules, you know, before they actually go into effect when they cross such a monumental threshold is a very good step in the right direction.    And I'll tell you in my experience as a practitioner that getting stays from the court process are very tough. I tell my clients that there's almost a macro that spits out that just says in a few paragraphs, stay denied. There's not a lot of judicial consideration of those stays, and so providing for an automatic stay in the very limited circumstance where you have a $1 billion rule is a very good step in the right direction.    Thank you.</t>
   </si>
   <si>
@@ -136,9 +118,6 @@
     <t xml:space="preserve">    Mr. Marino. Professor Buzbee.</t>
   </si>
   <si>
-    <t>Buzbee</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Buzbee. Chairman Marino, Ranking Member Johnson, and Members of the Subcommittee, thank you for the opportunity to discuss my views of bills under consideration.    And is this working okay?</t>
   </si>
   <si>
@@ -253,9 +232,6 @@
     <t>400196</t>
   </si>
   <si>
-    <t>Darrell E. Issa</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Issa. Thank you.</t>
   </si>
   <si>
@@ -361,9 +337,6 @@
     <t>412561</t>
   </si>
   <si>
-    <t>Hakeem S. Jeffries</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Jeffries. Thank you, Mr. Chairman. And I want to thank the witnesses for their presence here today, their testimony.    Let me just start with Mr. Buzbee. Am I correct that most interpretive rules are promulgated most often at the request of the industry?</t>
   </si>
   <si>
@@ -442,9 +415,6 @@
     <t>412635</t>
   </si>
   <si>
-    <t>Mike Bishop</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bishop. Thank you, Mr. Chairman. And thank you to the panel for being here today, and I appreciate your testimony.    I'd like to begin, if I could, with Mr. Clark. Critics of the REVIEW Act say that it will stop urgent rules in their tracks. Professor Buzbee indicated that that added process might discourage rulemakers also. But in your written testimony, I thought you provided the perfect answer for that, that statement, when you indicated that if a legislative rule--if a rule was that important, that Congress should take initiative and pass the statute as provided in our constitutional duty. I just want you, if you wouldn't mind, to expound upon that. And doesn't your answer highlight how upside down our modern concept of how to legislate and how the process works? And it seems to me that--of course, I'm new here, so I'm learning as I go, but as I sit through these hearings, I note that the power of Congress has slowly been handed over to unaccountable bodies, and we in Congress have very little authority to step in.    And I listened to the questioning earlier from my colleague across the aisle, who suggested that all these other uncertainties, when he's talking to Mr. Brady out there, that were caused by Congress. Certainly, there are uncertainties, but at the same time Congress is accountable. Ultimately, we have to face the people that brought us--that sent us here. Agencies don't have that same accountability.    So I would like you to talk a little bit about that answer. And if you wouldn't mind, just expound upon your thought on the current state of our system.</t>
   </si>
   <si>
@@ -472,9 +442,6 @@
     <t>412523</t>
   </si>
   <si>
-    <t>Scott H. Peters</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Peters. Thank you, Mr. Chairman. My colleagues know that I practiced law in this field before I got into government, and so I'm pretty sympathetic with some of the stuff that you are talking about.    And, Mr. Brady, I want to ask you a question, couple of questions, just to make sure I understand what the objection is.    You gave an example about overtime rules that might take effect for a business who's maybe already into a project, and so I understand the problem is the law or the courts. And you couldn't recover those. Obviously, if you were forced to pay these wages because a new rule came into effect, you were to pursue, overturn the rule, you would still be out the money. Would that not be irreparable harm under the law, and you are just not getting an injunction from the court?</t>
   </si>
   <si>
@@ -526,9 +493,6 @@
     <t>412531</t>
   </si>
   <si>
-    <t>Doug Collins</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Collins. Thank you, Mr. Chairman.    Again, this is--and I go out to both Mr. Bishop and also Mr. Peters in his question. I think this is a problem that most people are just struggling. Mr. Brady, that's why in a panel like this I appreciate you being here and actually having the, you know, what I call the boots on the ground. You have to live with this all the time.    I've had in my office just recently--it's not just a matter of also the interpretive language, it's also the matter of getting the actual agencies, if they are going to do a rule to actually do the rule. And I've got businesses right now that are having to make multi-million dollar decisions based on the salt or lack of salt in processed foods that are going to school lunch programs. They are having to make the decision now, because actually, business understands that you actually have to plant your crop before you get a harvest. Government doesn't understand that.    Government, if you work in the little cubicles down, which God love them, they are great folks, they need to be smaller in size, but they work down here for the good of folks, that's not the way it happens. They just can go on because they are never held accountable to any standard. They are accountable to a piece of paper that's brought out at the end of the day.    Mr. Buzbee, you said something that is really interesting to me. How in the world--and again, you have to understand, if you've heard me on the floor, and you've heard me here, I am not at all concerned about imposing a little bit of work on an agency. That is not a problem. Okay. My problem is when you said to impose due process or a substance, actually would be a problem, because then they would begin to skirt. I want you to explain a little bit more what you were saying there?</t>
   </si>
   <si>
@@ -566,9 +530,6 @@
   </si>
   <si>
     <t>412653</t>
-  </si>
-  <si>
-    <t>John Ratcliffe</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Ratcliffe. Thank you, Chairman Marino.    Gentlemen, thank you all for being here today. The industries that you represent are essential to manufacturing in this country both with respect to job creation and economic growth, and they're certainly vital to the families in the fourth congressional district of Texas, which I'm honored to represent. So from my perspective, this hearing couldn't be more timely or more critical.    And, frankly, in hearings like this, I'm at a loss when I hear my colleagues on the other side of the aisle express concern about reforms that would force regulatory agencies to be more deliberative and more thoughtful, as if that's troubling or a bad thing. And I couldn't agree with you more, Mr. Clark, when you said that this is really a separation of powers issue. And I would certainly hope that folks on both sides of the aisle would agree that we'd be better off in this country if we were solving the problems that need solving in our communities, not by regulations legislated by unelected bureaucrats at unaccountable agencies, but instead by statutes legislated by an accountable Congress.    So let me turn to you, Mr. Noe, because the impact of your members, those in the paper and the wood products manufacturing industry, is a big economic driver in the fourth congressional district of Texas. I want to make sure that those businesses and the families that they represent aren't crushed by regulations that require not just millions, but in some cases billions of dollars in compliance costs. In your testimony, you talked about sustainability efforts that the paper and wood products manufacturing industry has had to take in recent years, and you talked about costly regulations from the Federal Government, and additional $10 million in new capital obligations that you expect will come in the coming years, and that that is a regulatory burden that you called unsustainable.    With that in mind, do you think that the REVIEW Act that we're considering, H.R. 3438, would actually incentivize agencies to work with stakeholders in the paper and wood manufacturing industry before issuing regulations thereby resulting in more legally sound rules and, in fact, significantly reducing regulation that we have in this country?</t>
@@ -985,11 +946,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1011,11 +970,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1035,13 +992,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1063,11 +1018,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1087,13 +1040,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1115,11 +1066,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1139,13 +1088,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1167,11 +1114,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1191,13 +1136,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1219,11 +1162,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1245,11 +1186,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1269,13 +1208,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1297,11 +1234,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1321,13 +1256,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1349,11 +1282,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1373,13 +1304,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
         <v>29</v>
-      </c>
-      <c r="H17" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1401,11 +1330,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1425,13 +1352,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1453,11 +1378,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1479,11 +1402,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1503,13 +1424,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" t="s">
-        <v>40</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1529,13 +1448,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1555,13 +1472,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" t="s">
-        <v>40</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1581,13 +1496,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1607,13 +1520,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" t="s">
-        <v>40</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1635,11 +1546,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1661,11 +1570,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1685,13 +1592,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1713,11 +1618,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1737,13 +1640,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1765,11 +1666,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1789,13 +1688,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1817,11 +1714,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1841,13 +1736,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1869,11 +1762,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1893,13 +1784,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1919,13 +1808,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1945,13 +1832,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1971,13 +1856,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>19</v>
-      </c>
-      <c r="G40" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1997,13 +1880,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2023,13 +1904,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>19</v>
-      </c>
-      <c r="G42" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2049,13 +1928,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2075,13 +1952,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>19</v>
-      </c>
-      <c r="G44" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2101,13 +1976,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2127,13 +2000,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>19</v>
-      </c>
-      <c r="G46" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2153,13 +2024,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2179,13 +2048,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>19</v>
-      </c>
-      <c r="G48" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2205,13 +2072,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2231,13 +2096,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2257,13 +2120,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2283,13 +2144,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" t="s">
-        <v>40</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2309,13 +2168,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2335,13 +2192,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" t="s">
-        <v>40</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2361,13 +2216,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>15</v>
-      </c>
-      <c r="G55" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2387,13 +2240,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>19</v>
-      </c>
-      <c r="G56" t="s">
-        <v>40</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2413,13 +2264,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>15</v>
-      </c>
-      <c r="G57" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2441,11 +2290,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>12</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2465,13 +2312,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>78</v>
-      </c>
-      <c r="G59" t="s">
-        <v>79</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2491,13 +2336,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>15</v>
-      </c>
-      <c r="G60" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2519,11 +2362,9 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" t="s">
-        <v>12</v>
-      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2543,13 +2384,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>15</v>
-      </c>
-      <c r="G62" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2569,13 +2408,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>15</v>
-      </c>
-      <c r="G63" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2597,11 +2434,9 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" t="s">
-        <v>12</v>
-      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2621,13 +2456,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
+        <v>71</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
         <v>78</v>
-      </c>
-      <c r="G65" t="s">
-        <v>79</v>
-      </c>
-      <c r="H65" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2647,13 +2480,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>19</v>
-      </c>
-      <c r="G66" t="s">
-        <v>40</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2673,13 +2504,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>78</v>
-      </c>
-      <c r="G67" t="s">
-        <v>79</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2699,13 +2528,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>19</v>
-      </c>
-      <c r="G68" t="s">
-        <v>40</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2725,13 +2552,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>78</v>
-      </c>
-      <c r="G69" t="s">
-        <v>79</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2751,13 +2576,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>19</v>
-      </c>
-      <c r="G70" t="s">
-        <v>40</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2777,13 +2600,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>78</v>
-      </c>
-      <c r="G71" t="s">
-        <v>79</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2803,13 +2624,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>19</v>
-      </c>
-      <c r="G72" t="s">
-        <v>40</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2829,13 +2648,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>78</v>
-      </c>
-      <c r="G73" t="s">
-        <v>79</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2855,13 +2672,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>19</v>
-      </c>
-      <c r="G74" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2881,13 +2696,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>78</v>
-      </c>
-      <c r="G75" t="s">
-        <v>79</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2907,13 +2720,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>19</v>
-      </c>
-      <c r="G76" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2933,13 +2744,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>78</v>
-      </c>
-      <c r="G77" t="s">
-        <v>79</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2959,13 +2768,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>19</v>
-      </c>
-      <c r="G78" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2985,13 +2792,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>78</v>
-      </c>
-      <c r="G79" t="s">
-        <v>79</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3011,13 +2816,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>19</v>
-      </c>
-      <c r="G80" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3037,13 +2840,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>78</v>
-      </c>
-      <c r="G81" t="s">
-        <v>79</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3063,13 +2864,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>19</v>
-      </c>
-      <c r="G82" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3089,13 +2888,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>78</v>
-      </c>
-      <c r="G83" t="s">
-        <v>79</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3115,13 +2912,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>19</v>
-      </c>
-      <c r="G84" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3141,13 +2936,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>78</v>
-      </c>
-      <c r="G85" t="s">
-        <v>79</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3167,13 +2960,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>19</v>
-      </c>
-      <c r="G86" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3193,13 +2984,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>78</v>
-      </c>
-      <c r="G87" t="s">
-        <v>79</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3219,13 +3008,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>19</v>
-      </c>
-      <c r="G88" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3245,13 +3032,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>78</v>
-      </c>
-      <c r="G89" t="s">
-        <v>79</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3273,11 +3058,9 @@
       <c r="F90" t="s">
         <v>11</v>
       </c>
-      <c r="G90" t="s">
-        <v>12</v>
-      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3297,13 +3080,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>19</v>
-      </c>
-      <c r="G91" t="s">
-        <v>40</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3325,11 +3106,9 @@
       <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="G92" t="s">
-        <v>12</v>
-      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3349,13 +3128,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>114</v>
-      </c>
-      <c r="G93" t="s">
-        <v>115</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3375,13 +3152,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>19</v>
-      </c>
-      <c r="G94" t="s">
-        <v>40</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3401,13 +3176,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>114</v>
-      </c>
-      <c r="G95" t="s">
-        <v>115</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3427,13 +3200,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>19</v>
-      </c>
-      <c r="G96" t="s">
-        <v>40</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3453,13 +3224,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>114</v>
-      </c>
-      <c r="G97" t="s">
-        <v>115</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3479,13 +3248,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>19</v>
-      </c>
-      <c r="G98" t="s">
-        <v>40</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3505,13 +3272,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>114</v>
-      </c>
-      <c r="G99" t="s">
-        <v>115</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3531,13 +3296,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>19</v>
-      </c>
-      <c r="G100" t="s">
-        <v>40</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3557,13 +3320,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>114</v>
-      </c>
-      <c r="G101" t="s">
+        <v>106</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
         <v>115</v>
-      </c>
-      <c r="H101" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3583,13 +3344,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>19</v>
-      </c>
-      <c r="G102" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3609,13 +3368,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>114</v>
-      </c>
-      <c r="G103" t="s">
-        <v>115</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3635,13 +3392,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>19</v>
-      </c>
-      <c r="G104" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3661,13 +3416,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>114</v>
-      </c>
-      <c r="G105" t="s">
-        <v>115</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3687,13 +3440,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>19</v>
-      </c>
-      <c r="G106" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3713,13 +3464,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>114</v>
-      </c>
-      <c r="G107" t="s">
-        <v>115</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3739,13 +3488,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>19</v>
-      </c>
-      <c r="G108" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3765,13 +3512,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>114</v>
-      </c>
-      <c r="G109" t="s">
-        <v>115</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3791,13 +3536,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>19</v>
-      </c>
-      <c r="G110" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3817,13 +3560,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>114</v>
-      </c>
-      <c r="G111" t="s">
-        <v>115</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3843,13 +3584,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>19</v>
-      </c>
-      <c r="G112" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3869,13 +3608,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>114</v>
-      </c>
-      <c r="G113" t="s">
-        <v>115</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3895,13 +3632,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>19</v>
-      </c>
-      <c r="G114" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3921,13 +3656,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>114</v>
-      </c>
-      <c r="G115" t="s">
-        <v>115</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3947,13 +3680,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>19</v>
-      </c>
-      <c r="G116" t="s">
-        <v>40</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3973,13 +3704,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>114</v>
-      </c>
-      <c r="G117" t="s">
-        <v>115</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4001,11 +3730,9 @@
       <c r="F118" t="s">
         <v>11</v>
       </c>
-      <c r="G118" t="s">
-        <v>12</v>
-      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4025,13 +3752,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>141</v>
-      </c>
-      <c r="G119" t="s">
-        <v>142</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4051,13 +3776,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>19</v>
-      </c>
-      <c r="G120" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4077,13 +3800,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>141</v>
-      </c>
-      <c r="G121" t="s">
-        <v>142</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4103,13 +3824,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>19</v>
-      </c>
-      <c r="G122" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4129,13 +3848,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>141</v>
-      </c>
-      <c r="G123" t="s">
-        <v>142</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4155,13 +3872,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>19</v>
-      </c>
-      <c r="G124" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4181,13 +3896,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>141</v>
-      </c>
-      <c r="G125" t="s">
-        <v>142</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4209,11 +3922,9 @@
       <c r="F126" t="s">
         <v>11</v>
       </c>
-      <c r="G126" t="s">
-        <v>12</v>
-      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4233,13 +3944,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>151</v>
-      </c>
-      <c r="G127" t="s">
-        <v>152</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4259,13 +3968,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>19</v>
-      </c>
-      <c r="G128" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4285,13 +3992,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>151</v>
-      </c>
-      <c r="G129" t="s">
-        <v>152</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4311,13 +4016,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>19</v>
-      </c>
-      <c r="G130" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4337,13 +4040,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>151</v>
-      </c>
-      <c r="G131" t="s">
-        <v>152</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4363,13 +4064,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>19</v>
-      </c>
-      <c r="G132" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4389,13 +4088,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>151</v>
-      </c>
-      <c r="G133" t="s">
-        <v>152</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4415,13 +4112,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>19</v>
-      </c>
-      <c r="G134" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4441,13 +4136,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>151</v>
-      </c>
-      <c r="G135" t="s">
-        <v>152</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4467,13 +4160,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>19</v>
-      </c>
-      <c r="G136" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4493,13 +4184,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>151</v>
-      </c>
-      <c r="G137" t="s">
+        <v>141</v>
+      </c>
+      <c r="G137" t="s"/>
+      <c r="H137" t="s">
         <v>152</v>
-      </c>
-      <c r="H137" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4519,13 +4208,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>19</v>
-      </c>
-      <c r="G138" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4545,13 +4232,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>151</v>
-      </c>
-      <c r="G139" t="s">
-        <v>152</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4571,13 +4256,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>19</v>
-      </c>
-      <c r="G140" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4597,13 +4280,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>151</v>
-      </c>
-      <c r="G141" t="s">
-        <v>152</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4625,11 +4306,9 @@
       <c r="F142" t="s">
         <v>11</v>
       </c>
-      <c r="G142" t="s">
-        <v>12</v>
-      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4649,13 +4328,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>169</v>
-      </c>
-      <c r="G143" t="s">
-        <v>170</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4675,13 +4352,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>19</v>
-      </c>
-      <c r="G144" t="s">
-        <v>40</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4701,13 +4376,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>169</v>
-      </c>
-      <c r="G145" t="s">
-        <v>170</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4727,13 +4400,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>19</v>
-      </c>
-      <c r="G146" t="s">
-        <v>40</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4753,13 +4424,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>169</v>
-      </c>
-      <c r="G147" t="s">
-        <v>170</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4779,13 +4448,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>19</v>
-      </c>
-      <c r="G148" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4805,13 +4472,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>169</v>
-      </c>
-      <c r="G149" t="s">
-        <v>170</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4831,13 +4496,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>19</v>
-      </c>
-      <c r="G150" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4857,13 +4520,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>169</v>
-      </c>
-      <c r="G151" t="s">
-        <v>170</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4883,13 +4544,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>19</v>
-      </c>
-      <c r="G152" t="s">
-        <v>36</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4909,13 +4568,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
+        <v>158</v>
+      </c>
+      <c r="G153" t="s"/>
+      <c r="H153" t="s">
         <v>169</v>
-      </c>
-      <c r="G153" t="s">
-        <v>170</v>
-      </c>
-      <c r="H153" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4937,11 +4594,9 @@
       <c r="F154" t="s">
         <v>11</v>
       </c>
-      <c r="G154" t="s">
-        <v>12</v>
-      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4961,13 +4616,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>183</v>
-      </c>
-      <c r="G155" t="s">
-        <v>184</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4987,13 +4640,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>19</v>
-      </c>
-      <c r="G156" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5013,13 +4664,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>183</v>
-      </c>
-      <c r="G157" t="s">
-        <v>184</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5039,13 +4688,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>19</v>
-      </c>
-      <c r="G158" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5065,13 +4712,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>183</v>
-      </c>
-      <c r="G159" t="s">
-        <v>184</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5093,11 +4738,9 @@
       <c r="F160" t="s">
         <v>11</v>
       </c>
-      <c r="G160" t="s">
-        <v>12</v>
-      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97418.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97418.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="200">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>412468</t>
   </si>
   <si>
+    <t>Marino</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Marino. The Subcommittee on Regulatory Reform, Commercial and Antitrust Law will come to order. My colleagues are on their way. But I usually give at least 5 minutes. We've given 7. So we'll get started. I know your schedules are as hectic as ours.    Without objection, the Chair is authorized to declare a recess of the Committee at any time.    We welcome everyone to today's hearing on H.R. 3438, the ``Require Evaluation before Implementing Executive Wishlists (REVIEW) Act of 2015,'' and H.R. 2631, the ``Regulatory Predictability for Business Growth Act of 2015.'' And I now recognize myself for an opening statement.    Today, this Subcommittee continues its overall regulatory reform agenda by examining the targeted reforms to the U.S. regulatory process contained in two, straightforward bills. I'm honored that we can take a good look at H.R. 2631, the ``Regulatory Predictability for Business Growth Act of 2015,'' a bill offered by my colleague, Congressman Steve Russell of Oklahoma.    H.R. 2631 addresses a recent Supreme Court decision that upended the process by which agencies can change its own interpretive rules. How to address this change is an important question for us to consider today.    Today this Subcommittee will also examine my bill, the REVIEW Act. Over the last decade, our Nation has faced a costly and unprecedented regulatory onslaught. During this period, the size and scope of Federal regulation has ballooned to epic proportions. Longstanding Executive Branch policies have mandated additional scrutiny for ``significant regulatory action,'' i.e., those rules with an annual effect on the economy of $100 million or more.    But regulatory uberous has flown past these commonsense concerns as agencies more frequently propose mega-rules with annual cost in excess of $1 billion. But as these monstrous regulations become more frequent, an average of three per year during the Obama administration, and six in 2014 alone, it almost seems that nothing can curtail these potential to damage our economy. This bill is one more step in this Subcommittee's continued effort to put forth commonsense regulatory reform measures for the benefit of American workers.    The REVIEW Act presents a simple premise that massive $1 billion regulations should face full and thorough review by the courts before they become effective and force compliance costs on businesses across the country. It achieves this goal through a simple and straightforward mechanism, a mandatory stay of any $1 billion rule if it is challenged in court within 60 days of its promulgation.    Some observers might insist that the reforms in this bill are unnecessary. But just this summer, in the Supreme Court's decision in Michigan v. EPA, we saw firsthand that irreparable harm can occur as a result of expansive, costly, and poorly-crafted regulation.    In this case, the court found that the EPA has promulgated its Utility MACT rule through a faulty process and on legally infirm grounds because it chose not to consider costs when promulgating the rule. In this case, the costs of the rule were estimated by the EPA itself as $9.6 billion per year. In return the EPA's best estimate of potential benefits were in the range of a mere $4 million to $6 million annually.    As Justice Antonin Scalia wrote in his opinion for the court, ``One would not say that is even rational, never mind appropriate, to impose billions of dollars in economic cost in return for a few dollars in health or environmental benefits.'' Unfortunately for workers, homeowners, and taxpayers across the country, the Utility MACT rule remained in effect as litigation took years to work itself to a final decision at the Supreme Court.    Over this time, electricity providers were forced to close power plants as they faced uncertain compliance burdens. Jobs were lost, and electricity costs to consumers rose as a result. Until recently, regulations with $1 billion annual price tags were a rare occurrence. Since 2006, however, we have seen 26 in total.    The REVIEW Act is a step in the right direction to address this growing concern. It also provides a bit of certainty to the American people that massive $1 billion regulations must pass legal muster before their costs are passed on. I thank the Chairman for joining me on this bill, and I look forward to hearing from today's esteemed panel.    [The bills, H.R. 3438 and H.R. 2631, follow:]                                                                  __________                                                              </t>
   </si>
   <si>
@@ -61,6 +70,12 @@
     <t>412199</t>
   </si>
   <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Johnson. Thank you, Mr. Chairman.    Today's hearing provides this Subcommittee with an important opportunity to consider two regulatory reform proposals that would affect divergent aspects of the rulemaking system. The first of these proposals is H.R. 2631, the ``Regulatory Predictability for Business Growth Act of 2015,'' which would require agencies to undertake notice and comment under section 553, the Administrative Procedures Act, prior to revising interpretive rules that are older than 1 year.    An interpretive rule is any nonlegislative rule issued by an agency to clarify its views on a subject matter. These rules are usually issued in direct response to requests by regulated firms that want more clarity and transparency in a subject area. Because the rule has no binding legal effect, the parties are not bound by an agency's expression of its current rules.    Simply put, H.R. 2631 would impose immense procedural and analytical burdens on agencies seeking to provide regulatory clarity through interpretive rules. Not only would this requirement severely burden agencies' existing practice of issuing timely, interpretive rules, but it would also wreak havoc on the entire rulemaking system.    As Donald Elliott, a professor of law at Yale Law School, noted in 1992, ``Imposing a notice-and-comment requirement on nonlegislative rules would literally grind the modern administrative process to a halt.''    In an Amicus brief filed in Perez v. Mortgage Bankers, where the Supreme Court unanimously rejected a judicial doctrine requiring notice and comment for revisions to longstanding interpretive rules, a group of leading administrative law experts similarly argued that this requirement would be ``burdensome, costly, and time consuming for agencies.''    The second regulatory reform proposal before us today is H.R. 3438, the ``Require Evaluation before Implementing Executive Wishlists Act of 2015,'' or otherwise known as the ``REVIEW Act,'' which would automatically stay high-impact rules that a party challenges within 60 days of an agency's adoption of the rule. Under current law, both courts and the agency issuing a rule may stay the effective date of a rule.    While agencies have broad discretion in postponing the effective date of a rule, a court considers several factors in deciding whether to stay a rule, including whether the party is likely to succeed on the merits. Unlike current law, the REVIEW Act would require that agencies automatically delay the effective date for rules exceeding $1 billion in costs, regardless of whether the party challenging the rule has any likelihood of success on the merits, is actually harmed by the rule, or whether staying the rule would be contrary to the public interest.    This guarantees that virtually every regulated firm would challenge high-impact rules through frivolous litigation, creating further delays for these rules, which, in many cases, have already taken years to promulgate. But the bill wouldn't just apply to these rules; rather, it would likely apply to transfer rules, which involve the transfer of funds for budgetary programs as authorized by Congress, such as transfer rules involving the Medicare program or the Federal Pell Grant program.    In closing, I look forward to our esteemed panel's testimony today, and I yield back.</t>
   </si>
   <si>
@@ -70,12 +85,18 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Goodlatte</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Goodlatte. Thank you, Mr. Chairman.    Today's hearing continues the Judiciary Committee's efforts to deliver urgently needed reforms of Washington's regulatory system--a system that virtually every day places new obstacles in the path of American jobs and economic growth.    We consider today two bills: Subcommittee Chairman Marino's REVIEW Act; and Representative Russell's ``Regulatory Predictable for Business Growth Act.'' These are new bills developed in response to Supreme Court decisions issued during the Court's 2014 term.    The REVIEW Act contains a simple common-sense reform responding to a problem highlighted by the court's decision in the case of Michigan v. EPA. The problem is that, too often, new regulations that impose enormous costs on our society are successfully challenged in court, but are not stayed while litigation is pending.    When these regulations are ultimately overturned, but compliance with them has been required while litigation is pending, there can be no question that large amounts of precious resources have been wasted--resources that could've been spent creating jobs, investing in development, and growing America's economy for the benefit of all.    The REVIEW Act solves this problem with a simple bright-line test that says, if a new regulation imposes $1 billion or more in annual costs, it will not go into effect until after litigation challenging it is resolved. Of course, if the regulation is not challenged, it may go into effect as normal.    This is a balanced approach. And, it provides a healthy incentive for agencies to promulgate effective but lower-cost regulations that are more legally sound to begin with.    The other bill we are examining, the Regulatory Predictability for Business Growth Act, responds to the case of Perez v. Mortgage Bankers Association. The bill would make sure that, notwithstanding the court's decision finding a current gap in the provisions of the Administrative Procedures Act, agencies will provide notice to the public and an opportunity for comment before they change longstanding interpretive regulations.    This is only fair. Job creators must live day-to-day with the interpretations agencies espouse, and the broader public relies on agencies' good-faith adherence to sound and settled interpretations of law. Both deserve notice and a chance to comment on changes in interpretive rules before those changes are made.    These are simple but powerful reforms that will help to improve Americans' daily lives. I urge my colleagues to consider well and support these important pieces of legislation.    I look forward to hearing the testimony of our witnesses today, and yield back. Thank you, Mr. Chairman.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Marino. Thank you, Chairman.    Mr. Conyers, the Ranking Member of the full Judiciary Committee, will be on his way shortly. And I'm going to reserve the time for his opening statement for when he gets here.    And without objection, other Members' opening statements will be made part of the record.    And I will begin by swearing in our witnesses before introducing them. If you would please stand and raise your right hand.    Do you swear that the testimony you're about to give is the truth--before this Committee--the whole truth and nothing but the truth so help you God?    Let the record reflect that all the witnesses responded in the affirmative. Please be seated.    We have a distinguished panel with us today, and I want to thank the Members for being here. Seated to my left, the first gentleman, Mr. Brady is the president and founder of Brady Homes Illinois, and the second vice chairman of the National Association of Homebuilders.    He is a second-generation homebuilder. Brady Homes Illinois is a small, single-family building and development company that since its founding by his father, William Brady, Sr., in 1962, has become one of the largest homebuilding firms in central Illinois.    Mr. Brady has served on the NAHB board of directors for more than 10 years and has also held seats on several committees and task forces, including the NAHB Federal Government Affairs Committee and the Budget and Finance Committee. Mr. Brady has been a trustee and chairman of Build-PAC, NAHB's Political Action Committee.    Outside of NAHB, Mr. Brady has worked on many boards and commissions including serving on the board of directors, on the Federal Home Loan Bank of Chicago, in the Jack Kemp Foundation. And as a member of the Bloomington Planning Commission, and the Bipartisan Policy Center Housing Commission. Mr. Brady earned his bachelor's degree in political business from Illinois Wesley University.    Welcome, sir.</t>
   </si>
   <si>
+    <t>Brady</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Brady. Thank you.</t>
   </si>
   <si>
@@ -91,6 +112,9 @@
     <t xml:space="preserve">    Mr. Marino. Mr. Noe.</t>
   </si>
   <si>
+    <t>Noe</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Noe. Thank you. Chairman Marino, Ranking Member Johnson, and Members of the Subcommittee, my name is Paul Noe, and I want to thank you for the opportunity to be here today on behalf of the American Forest and Paper Association, the American Wood Council, and their members on two bills to make important reforms to the Federal rulemaking process.    We applaud these bills because we believe they are important steps to increase regulatory transparency and fairness, harmonize regulatory requirements, avoid wasting limited resources, and increase regulatory certainty. H.R. 2631 would require public notice and comment when agencies issue an interpretive rule that conflicts with, or is inconsistent with a, previous longstanding interpretive guidance.    This is consistent with the principles of due process, transparency, and accountability that are the foundation of the APA. After the Supreme Court's Mortgage Bankers decision, it is clear that an agency can reverse the binding policy reflected in a longstanding, definitive interpretive rule by simply issuing a contrary interpretive rule. In other words, an agency can change its binding policy from ``X'' to ``not X'' without having provided the public notice and an opportunity for comment.    As a practical matter, by regulating through interpretive guidance rather than legislative rules, an agency often can avoid not only public review but OMB review, court review, and congressional oversight. That is not good government. As the D.C. circuit put it, the phenomenon we see in this case is familiar.    Congress passes a broadly-worded statute. The agency follows with regulations containing broad language, open-ended phrases, ambiguous standards, and the like. Then as years pass, the agency issues circulars or guidance or memoranda explaining, interpreting, defining, and often expanding the commands and the regulations. Law is made without notice and comment, without public participation, without publication in the Federal Register, or the code of Federal regulations.    Many authorities have gone beyond H.R. 2631 to recommend pre-adoption notice and comment for all significant guidance, including the administrative conference of the United States, the U.S. Food and Drug Administration, and the American Bar Association. H.R. 2631 has a more modest scope by proposing pre-adoption notice and comment for interpretive rules, not policy statements, that conflict with or are inconsistent with prior interpretive guidance that have been in effect for a year or more. This bill is a good step toward addressing the problem of regulation by guidance.    The other bill, H.R. 3438 would, pending judicial review, postpone the effective date of high-impact rules that may impose an annual cost on the economy of not less than $1 billion. This bill would promote certainty, efficiency, and legal integrity in the regulatory process.    All too often regulations requiring major capital investments are struck down in court, and this is an increasing trend, I believe. H.R. 3438 would avoid wasting resources, stranding assets, and ensure that rules are legally sound before billions of dollars in investment are made.    One example of how this rule effects the U.S. forest products industry is EPA's Boiler MACT rules. In 2007, about $200 million in compliance investments were stranded in the paper and wood products industry when a court struck down the 2004 Boiler MACT rules just 3 months before the compliance deadline.    When the rules were reissued in 2013, the new standards had changed significantly, and previous investments proved to be the wrong approaches to achieve compliance. Wasting limited capital undermines the competitiveness of U.S. businesses and impedes growth in job creation. One suggestion I would submit for the Subcommittee to consider is to broaden the definition of high-impact rules to ensure that highly consequential rules, such as the Boiler MACT rules, are covered.    In conclusion, H.R. 2631 and H.R. 3438 take important steps to promote transparency, certainty, efficiency, and fairness in the regulatory process. We support these efforts, and we would be happy to work with the Committee as it advances these proposals through the legislative process.    Mr. Chairman, I request permission to include in the record documents referenced in my testimony. I thank you.</t>
   </si>
   <si>
@@ -109,6 +133,9 @@
     <t xml:space="preserve">    Mr. Marino. Mr. Clark.</t>
   </si>
   <si>
+    <t>Clark</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Clark. Good morning, Chairman Marino, and Ranking Member Johnson, and honorable Members of the Subcommittee.    I'm very pleased to be here today. And in addition to coming to help however I can with my testimony, I wanted to note that my wife and oldest daughter are in the room. I thought it would be a good civics lesson, especially with it being voting day in my home State of Virginia.    And also, Ranking Member Johnson, my wife lived for a long time, including when we were married 20 years ago in your district, in Stone Mountain, Georgia. And she came there after she immigrated from Korea.    So with that little introduction out of the way, I can draw a straight line, I think, between my law school experiences in front of Judge Silverman, as I noted in my written testimony, to my career here at DOJ, and to sitting here with you today. And, you know, if I were a half generation younger, I'm sure I would've had Professor Buzbee as one of my professors, so I'm honored to sit alongside of him.    Administrative law really is constitutional law. It's suffused with the separation of powers, with due process concerns, and with guaranteeing Democratic accountability. And I think both of the bills that you have before you today are excellent bills that would help to accomplish promoting those constitutional ends.    The first bill, H.R. 2631, really is the product, I think, of you trying to solve a negative synergy between a number of administrative law doctrines and current provisions in the APA that the Paralyzed Veterans case enforced, and those rules are 553(b), which is what got enforced in Mortgage Bankers, Seminole Rock deference and its potential for abuse, and Chevron.    The combination of those rules really let agencies turn on a dime and defeat reliance interests by individuals in businesses like the NAHB and their members. And by imposing this new requirement that resurrects the Paralyzed Veterans doctrine, you would help to counteract all of those negative synergies.    In addition, I think there is several other advantages, which I lay out in my written testimony. I think it advances your power to, as Congress, write the laws. The argument that we often hear from the professoriate that agency processes will be ossified, I think, has really become a tired canard at this point. You get to define the Nation's policies and legislation, not really the Executive Branch or the professoriate.    Second, I think that these bills, the first bill especially, the one that reverses Paralyzed Veterans, helps to enhance the separation of powers, because it gives time for mistakes to be corrected. It doesn't allow agencies to turn on a dime. It allows agencies that are acting closer in time to the law that they passed--that was passed that, you know, is being interpreted, and so that harmonizes agency action more with congressional will.    And third, by giving that time period and making sure that there's notice and comment, you establish that there's an adversary process, an adversary process that can inform judicial review and, thereby, also enhance the separation of powers through the process of judicial oversight. Of course, the fact that you have notice and comment enhances due process and accountability, and it helps to protect reliance interests.    In addition, it protects both public property and private property, not just private property, because many agencies regulate the actions of other Executive Branch agencies.    And third--I'm sorry, and lastly, it's not a perfect solution to the abuses of Seminole Rock deference, but it's kind of a very good second best. It's a very good first start to try to reverse those abuses.    And, you know, I note that Professor Buzbee had indicated that, you know, perhaps you might be open to seeing, you know, that bigger step of reversing Seminole Rock deference. But in the short term, I think this is a good first step toward that.    Turning to the second bill, the REVIEW Act of 2015, you know, I started my testimony with the apocrypha from Senator Dirksen of, you know, $1 billion here, $1 billion there, and pretty soon you're talking, you know, real money. I think that providing an automatic legislative stay that will be in place to allow the courts to test the legality of rules, you know, before they actually go into effect when they cross such a monumental threshold is a very good step in the right direction.    And I'll tell you in my experience as a practitioner that getting stays from the court process are very tough. I tell my clients that there's almost a macro that spits out that just says in a few paragraphs, stay denied. There's not a lot of judicial consideration of those stays, and so providing for an automatic stay in the very limited circumstance where you have a $1 billion rule is a very good step in the right direction.    Thank you.</t>
   </si>
   <si>
@@ -118,6 +145,9 @@
     <t xml:space="preserve">    Mr. Marino. Professor Buzbee.</t>
   </si>
   <si>
+    <t>Buzbee</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Buzbee. Chairman Marino, Ranking Member Johnson, and Members of the Subcommittee, thank you for the opportunity to discuss my views of bills under consideration.    And is this working okay?</t>
   </si>
   <si>
@@ -232,6 +262,12 @@
     <t>400196</t>
   </si>
   <si>
+    <t>Issa</t>
+  </si>
+  <si>
+    <t>Darrell</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Issa. Thank you.</t>
   </si>
   <si>
@@ -337,6 +373,12 @@
     <t>412561</t>
   </si>
   <si>
+    <t>Jeffries</t>
+  </si>
+  <si>
+    <t>Hakeem</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Jeffries. Thank you, Mr. Chairman. And I want to thank the witnesses for their presence here today, their testimony.    Let me just start with Mr. Buzbee. Am I correct that most interpretive rules are promulgated most often at the request of the industry?</t>
   </si>
   <si>
@@ -415,6 +457,12 @@
     <t>412635</t>
   </si>
   <si>
+    <t>Bishop</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bishop. Thank you, Mr. Chairman. And thank you to the panel for being here today, and I appreciate your testimony.    I'd like to begin, if I could, with Mr. Clark. Critics of the REVIEW Act say that it will stop urgent rules in their tracks. Professor Buzbee indicated that that added process might discourage rulemakers also. But in your written testimony, I thought you provided the perfect answer for that, that statement, when you indicated that if a legislative rule--if a rule was that important, that Congress should take initiative and pass the statute as provided in our constitutional duty. I just want you, if you wouldn't mind, to expound upon that. And doesn't your answer highlight how upside down our modern concept of how to legislate and how the process works? And it seems to me that--of course, I'm new here, so I'm learning as I go, but as I sit through these hearings, I note that the power of Congress has slowly been handed over to unaccountable bodies, and we in Congress have very little authority to step in.    And I listened to the questioning earlier from my colleague across the aisle, who suggested that all these other uncertainties, when he's talking to Mr. Brady out there, that were caused by Congress. Certainly, there are uncertainties, but at the same time Congress is accountable. Ultimately, we have to face the people that brought us--that sent us here. Agencies don't have that same accountability.    So I would like you to talk a little bit about that answer. And if you wouldn't mind, just expound upon your thought on the current state of our system.</t>
   </si>
   <si>
@@ -442,6 +490,12 @@
     <t>412523</t>
   </si>
   <si>
+    <t>Peters</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Peters. Thank you, Mr. Chairman. My colleagues know that I practiced law in this field before I got into government, and so I'm pretty sympathetic with some of the stuff that you are talking about.    And, Mr. Brady, I want to ask you a question, couple of questions, just to make sure I understand what the objection is.    You gave an example about overtime rules that might take effect for a business who's maybe already into a project, and so I understand the problem is the law or the courts. And you couldn't recover those. Obviously, if you were forced to pay these wages because a new rule came into effect, you were to pursue, overturn the rule, you would still be out the money. Would that not be irreparable harm under the law, and you are just not getting an injunction from the court?</t>
   </si>
   <si>
@@ -493,6 +547,12 @@
     <t>412531</t>
   </si>
   <si>
+    <t>Collins</t>
+  </si>
+  <si>
+    <t>Doug</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Collins. Thank you, Mr. Chairman.    Again, this is--and I go out to both Mr. Bishop and also Mr. Peters in his question. I think this is a problem that most people are just struggling. Mr. Brady, that's why in a panel like this I appreciate you being here and actually having the, you know, what I call the boots on the ground. You have to live with this all the time.    I've had in my office just recently--it's not just a matter of also the interpretive language, it's also the matter of getting the actual agencies, if they are going to do a rule to actually do the rule. And I've got businesses right now that are having to make multi-million dollar decisions based on the salt or lack of salt in processed foods that are going to school lunch programs. They are having to make the decision now, because actually, business understands that you actually have to plant your crop before you get a harvest. Government doesn't understand that.    Government, if you work in the little cubicles down, which God love them, they are great folks, they need to be smaller in size, but they work down here for the good of folks, that's not the way it happens. They just can go on because they are never held accountable to any standard. They are accountable to a piece of paper that's brought out at the end of the day.    Mr. Buzbee, you said something that is really interesting to me. How in the world--and again, you have to understand, if you've heard me on the floor, and you've heard me here, I am not at all concerned about imposing a little bit of work on an agency. That is not a problem. Okay. My problem is when you said to impose due process or a substance, actually would be a problem, because then they would begin to skirt. I want you to explain a little bit more what you were saying there?</t>
   </si>
   <si>
@@ -530,6 +590,12 @@
   </si>
   <si>
     <t>412653</t>
+  </si>
+  <si>
+    <t>Ratcliffe</t>
+  </si>
+  <si>
+    <t>John</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Ratcliffe. Thank you, Chairman Marino.    Gentlemen, thank you all for being here today. The industries that you represent are essential to manufacturing in this country both with respect to job creation and economic growth, and they're certainly vital to the families in the fourth congressional district of Texas, which I'm honored to represent. So from my perspective, this hearing couldn't be more timely or more critical.    And, frankly, in hearings like this, I'm at a loss when I hear my colleagues on the other side of the aisle express concern about reforms that would force regulatory agencies to be more deliberative and more thoughtful, as if that's troubling or a bad thing. And I couldn't agree with you more, Mr. Clark, when you said that this is really a separation of powers issue. And I would certainly hope that folks on both sides of the aisle would agree that we'd be better off in this country if we were solving the problems that need solving in our communities, not by regulations legislated by unelected bureaucrats at unaccountable agencies, but instead by statutes legislated by an accountable Congress.    So let me turn to you, Mr. Noe, because the impact of your members, those in the paper and the wood products manufacturing industry, is a big economic driver in the fourth congressional district of Texas. I want to make sure that those businesses and the families that they represent aren't crushed by regulations that require not just millions, but in some cases billions of dollars in compliance costs. In your testimony, you talked about sustainability efforts that the paper and wood products manufacturing industry has had to take in recent years, and you talked about costly regulations from the Federal Government, and additional $10 million in new capital obligations that you expect will come in the coming years, and that that is a regulatory burden that you called unsustainable.    With that in mind, do you think that the REVIEW Act that we're considering, H.R. 3438, would actually incentivize agencies to work with stakeholders in the paper and wood manufacturing industry before issuing regulations thereby resulting in more legally sound rules and, in fact, significantly reducing regulation that we have in this country?</t>
@@ -896,7 +962,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H160"/>
+  <dimension ref="A1:I160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -904,7 +970,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -926,3821 +992,4485 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G22" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G23" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G24" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G25" t="s">
+        <v>18</v>
+      </c>
       <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G29" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G31" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G33" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G35" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
       <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G37" t="s">
+        <v>18</v>
+      </c>
       <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G38" t="s">
+        <v>39</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G39" t="s">
+        <v>18</v>
+      </c>
       <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G40" t="s">
+        <v>39</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G41" t="s">
+        <v>18</v>
+      </c>
       <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G42" t="s">
+        <v>39</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G43" t="s">
+        <v>18</v>
+      </c>
       <c r="H43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G44" t="s">
+        <v>39</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G45" t="s">
+        <v>18</v>
+      </c>
       <c r="H45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G46" t="s">
+        <v>39</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G47" t="s">
+        <v>18</v>
+      </c>
       <c r="H47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>17</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G48" t="s">
+        <v>39</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G49" t="s">
+        <v>18</v>
+      </c>
       <c r="H49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G50" t="s">
+        <v>39</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G51" t="s">
+        <v>18</v>
+      </c>
       <c r="H51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>17</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G52" t="s">
+        <v>43</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G53" t="s">
+        <v>18</v>
+      </c>
       <c r="H53" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I53" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G54" t="s">
+        <v>43</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G55" t="s">
+        <v>18</v>
+      </c>
       <c r="H55" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I55" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G56" t="s">
+        <v>43</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G57" t="s">
+        <v>18</v>
+      </c>
       <c r="H57" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I57" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
       <c r="H58" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>71</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G59" t="s">
+        <v>82</v>
+      </c>
       <c r="H59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G60" t="s">
+        <v>18</v>
+      </c>
       <c r="H60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I60" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>13</v>
+      </c>
       <c r="H61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G62" t="s">
+        <v>18</v>
+      </c>
       <c r="H62" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G63" t="s">
+        <v>18</v>
+      </c>
       <c r="H63" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I63" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>13</v>
+      </c>
       <c r="H64" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I64" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>71</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G65" t="s">
+        <v>82</v>
+      </c>
       <c r="H65" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I65" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>17</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G66" t="s">
+        <v>43</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>71</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G67" t="s">
+        <v>82</v>
+      </c>
       <c r="H67" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I67" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>17</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G68" t="s">
+        <v>43</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>71</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G69" t="s">
+        <v>82</v>
+      </c>
       <c r="H69" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I69" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>17</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G70" t="s">
+        <v>43</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>71</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G71" t="s">
+        <v>82</v>
+      </c>
       <c r="H71" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I71" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>17</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G72" t="s">
+        <v>43</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>71</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G73" t="s">
+        <v>82</v>
+      </c>
       <c r="H73" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I73" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>17</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G74" t="s">
+        <v>39</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>71</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G75" t="s">
+        <v>82</v>
+      </c>
       <c r="H75" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I75" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>17</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G76" t="s">
+        <v>32</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>71</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G77" t="s">
+        <v>82</v>
+      </c>
       <c r="H77" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I77" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>17</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G78" t="s">
+        <v>26</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>71</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G79" t="s">
+        <v>82</v>
+      </c>
       <c r="H79" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I79" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>17</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G80" t="s">
+        <v>39</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>71</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G81" t="s">
+        <v>82</v>
+      </c>
       <c r="H81" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I81" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>17</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G82" t="s">
+        <v>39</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>71</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G83" t="s">
+        <v>82</v>
+      </c>
       <c r="H83" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I83" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>17</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G84" t="s">
+        <v>39</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>71</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G85" t="s">
+        <v>82</v>
+      </c>
       <c r="H85" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I85" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>17</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G86" t="s">
+        <v>32</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>71</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G87" t="s">
+        <v>82</v>
+      </c>
       <c r="H87" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I87" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>17</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G88" t="s">
+        <v>26</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>71</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G89" t="s">
+        <v>82</v>
+      </c>
       <c r="H89" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I89" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>11</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G90" t="s">
+        <v>13</v>
+      </c>
       <c r="H90" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I90" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>17</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G91" t="s">
+        <v>43</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>13</v>
+      </c>
       <c r="H92" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I92" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>106</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G93" t="s">
+        <v>119</v>
+      </c>
       <c r="H93" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I93" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>17</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G94" t="s">
+        <v>43</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>106</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G95" t="s">
+        <v>119</v>
+      </c>
       <c r="H95" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I95" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>17</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G96" t="s">
+        <v>43</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>106</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G97" t="s">
+        <v>119</v>
+      </c>
       <c r="H97" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I97" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>17</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G98" t="s">
+        <v>43</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>106</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G99" t="s">
+        <v>119</v>
+      </c>
       <c r="H99" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I99" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>17</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G100" t="s">
+        <v>43</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>106</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G101" t="s">
+        <v>119</v>
+      </c>
       <c r="H101" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I101" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>17</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G102" t="s">
+        <v>26</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>106</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G103" t="s">
+        <v>119</v>
+      </c>
       <c r="H103" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I103" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>17</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G104" t="s">
+        <v>26</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>106</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G105" t="s">
+        <v>119</v>
+      </c>
       <c r="H105" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I105" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>17</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G106" t="s">
+        <v>26</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>106</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G107" t="s">
+        <v>119</v>
+      </c>
       <c r="H107" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I107" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>17</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G108" t="s">
+        <v>26</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>106</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G109" t="s">
+        <v>119</v>
+      </c>
       <c r="H109" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I109" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>17</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G110" t="s">
+        <v>26</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>106</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G111" t="s">
+        <v>119</v>
+      </c>
       <c r="H111" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I111" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>17</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G112" t="s">
+        <v>26</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>106</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G113" t="s">
+        <v>119</v>
+      </c>
       <c r="H113" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I113" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>17</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G114" t="s">
+        <v>26</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>106</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G115" t="s">
+        <v>119</v>
+      </c>
       <c r="H115" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I115" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>17</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G116" t="s">
+        <v>43</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>106</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G117" t="s">
+        <v>119</v>
+      </c>
       <c r="H117" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I117" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>11</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>13</v>
+      </c>
       <c r="H118" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I118" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>132</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>146</v>
+      </c>
+      <c r="G119" t="s">
+        <v>147</v>
+      </c>
       <c r="H119" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>148</v>
+      </c>
+      <c r="I119" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>17</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G120" t="s">
+        <v>39</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>132</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>146</v>
+      </c>
+      <c r="G121" t="s">
+        <v>147</v>
+      </c>
       <c r="H121" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>148</v>
+      </c>
+      <c r="I121" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>17</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G122" t="s">
+        <v>26</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>132</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>146</v>
+      </c>
+      <c r="G123" t="s">
+        <v>147</v>
+      </c>
       <c r="H123" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>148</v>
+      </c>
+      <c r="I123" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>17</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G124" t="s">
+        <v>26</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>132</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>146</v>
+      </c>
+      <c r="G125" t="s">
+        <v>147</v>
+      </c>
       <c r="H125" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>148</v>
+      </c>
+      <c r="I125" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>11</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G126" t="s">
+        <v>13</v>
+      </c>
       <c r="H126" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I126" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>141</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="G127" t="s">
+        <v>158</v>
+      </c>
       <c r="H127" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>159</v>
+      </c>
+      <c r="I127" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>17</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G128" t="s">
+        <v>26</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>141</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="G129" t="s">
+        <v>158</v>
+      </c>
       <c r="H129" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>159</v>
+      </c>
+      <c r="I129" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>17</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G130" t="s">
+        <v>26</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>141</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="G131" t="s">
+        <v>158</v>
+      </c>
       <c r="H131" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>159</v>
+      </c>
+      <c r="I131" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>17</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G132" t="s">
+        <v>26</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>141</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="G133" t="s">
+        <v>158</v>
+      </c>
       <c r="H133" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>159</v>
+      </c>
+      <c r="I133" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>17</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G134" t="s">
+        <v>26</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>141</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="G135" t="s">
+        <v>158</v>
+      </c>
       <c r="H135" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>159</v>
+      </c>
+      <c r="I135" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>17</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G136" t="s">
+        <v>26</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>141</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="G137" t="s">
+        <v>158</v>
+      </c>
       <c r="H137" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>159</v>
+      </c>
+      <c r="I137" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>17</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G138" t="s">
+        <v>26</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>141</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="G139" t="s">
+        <v>158</v>
+      </c>
       <c r="H139" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>159</v>
+      </c>
+      <c r="I139" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>17</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G140" t="s">
+        <v>32</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>141</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="G141" t="s">
+        <v>158</v>
+      </c>
       <c r="H141" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>159</v>
+      </c>
+      <c r="I141" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>11</v>
-      </c>
-      <c r="G142" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G142" t="s">
+        <v>13</v>
+      </c>
       <c r="H142" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I142" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>158</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>176</v>
+      </c>
+      <c r="G143" t="s">
+        <v>177</v>
+      </c>
       <c r="H143" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>178</v>
+      </c>
+      <c r="I143" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>17</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G144" t="s">
+        <v>43</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>158</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>176</v>
+      </c>
+      <c r="G145" t="s">
+        <v>177</v>
+      </c>
       <c r="H145" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>178</v>
+      </c>
+      <c r="I145" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>17</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G146" t="s">
+        <v>43</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>158</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>176</v>
+      </c>
+      <c r="G147" t="s">
+        <v>177</v>
+      </c>
       <c r="H147" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>178</v>
+      </c>
+      <c r="I147" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>17</v>
-      </c>
-      <c r="G148" t="s"/>
-      <c r="H148" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G148" t="s">
+        <v>26</v>
+      </c>
+      <c r="H148" t="s"/>
+      <c r="I148" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>158</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>176</v>
+      </c>
+      <c r="G149" t="s">
+        <v>177</v>
+      </c>
       <c r="H149" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>178</v>
+      </c>
+      <c r="I149" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>17</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G150" t="s">
+        <v>32</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>158</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>176</v>
+      </c>
+      <c r="G151" t="s">
+        <v>177</v>
+      </c>
       <c r="H151" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>178</v>
+      </c>
+      <c r="I151" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>17</v>
-      </c>
-      <c r="G152" t="s"/>
-      <c r="H152" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G152" t="s">
+        <v>39</v>
+      </c>
+      <c r="H152" t="s"/>
+      <c r="I152" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>158</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>176</v>
+      </c>
+      <c r="G153" t="s">
+        <v>177</v>
+      </c>
       <c r="H153" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>178</v>
+      </c>
+      <c r="I153" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>11</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G154" t="s">
+        <v>13</v>
+      </c>
       <c r="H154" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I154" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>171</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>191</v>
+      </c>
+      <c r="G155" t="s">
+        <v>192</v>
+      </c>
       <c r="H155" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>193</v>
+      </c>
+      <c r="I155" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>17</v>
-      </c>
-      <c r="G156" t="s"/>
-      <c r="H156" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G156" t="s">
+        <v>32</v>
+      </c>
+      <c r="H156" t="s"/>
+      <c r="I156" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>171</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>191</v>
+      </c>
+      <c r="G157" t="s">
+        <v>192</v>
+      </c>
       <c r="H157" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>193</v>
+      </c>
+      <c r="I157" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>17</v>
-      </c>
-      <c r="G158" t="s"/>
-      <c r="H158" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G158" t="s">
+        <v>26</v>
+      </c>
+      <c r="H158" t="s"/>
+      <c r="I158" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>171</v>
-      </c>
-      <c r="G159" t="s"/>
+        <v>191</v>
+      </c>
+      <c r="G159" t="s">
+        <v>192</v>
+      </c>
       <c r="H159" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>193</v>
+      </c>
+      <c r="I159" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>11</v>
-      </c>
-      <c r="G160" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G160" t="s">
+        <v>13</v>
+      </c>
       <c r="H160" t="s">
-        <v>177</v>
+        <v>14</v>
+      </c>
+      <c r="I160" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97418.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97418.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="204">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412468</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Marino</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>412199</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Johnson</t>
   </si>
   <si>
@@ -260,6 +269,9 @@
   </si>
   <si>
     <t>400196</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Issa</t>
@@ -962,7 +974,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I160"/>
+  <dimension ref="A1:J160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -970,7 +982,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -995,4482 +1007,4828 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" t="s">
-        <v>43</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" t="s">
-        <v>39</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" t="s">
-        <v>43</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" t="s">
-        <v>43</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>22</v>
-      </c>
-      <c r="G29" t="s">
-        <v>39</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" t="s">
-        <v>39</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" t="s">
-        <v>32</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>35</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" t="s">
-        <v>26</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G37" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H37" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>22</v>
-      </c>
-      <c r="G38" t="s">
-        <v>39</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>42</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H39" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" t="s">
-        <v>39</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>42</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G41" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H41" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I41" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>22</v>
-      </c>
-      <c r="G42" t="s">
-        <v>39</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>42</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G43" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H43" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I43" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>22</v>
-      </c>
-      <c r="G44" t="s">
-        <v>39</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>42</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G45" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H45" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I45" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" t="s">
-        <v>39</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>42</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G47" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H47" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I47" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>22</v>
-      </c>
-      <c r="G48" t="s">
-        <v>39</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>42</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G49" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H49" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I49" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" t="s">
-        <v>39</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>42</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G51" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H51" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I51" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>22</v>
-      </c>
-      <c r="G52" t="s">
-        <v>43</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G53" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H53" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I53" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>22</v>
-      </c>
-      <c r="G54" t="s">
-        <v>43</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G55" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H55" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I55" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>22</v>
-      </c>
-      <c r="G56" t="s">
-        <v>43</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G57" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H57" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I57" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I58" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G59" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H59" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I59" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G60" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H60" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I60" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J60" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I61" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G62" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H62" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I62" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G63" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H63" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I63" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I64" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G65" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H65" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I65" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>22</v>
-      </c>
-      <c r="G66" t="s">
-        <v>43</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G67" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H67" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I67" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>22</v>
-      </c>
-      <c r="G68" t="s">
-        <v>43</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G69" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H69" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I69" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J69" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>22</v>
-      </c>
-      <c r="G70" t="s">
-        <v>43</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G71" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H71" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I71" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>22</v>
-      </c>
-      <c r="G72" t="s">
-        <v>43</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G73" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H73" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I73" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J73" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>22</v>
-      </c>
-      <c r="G74" t="s">
-        <v>39</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>42</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G75" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H75" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I75" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J75" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>22</v>
-      </c>
-      <c r="G76" t="s">
-        <v>32</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>35</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G77" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H77" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I77" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J77" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>22</v>
-      </c>
-      <c r="G78" t="s">
-        <v>26</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>29</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G79" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H79" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I79" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J79" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>22</v>
-      </c>
-      <c r="G80" t="s">
-        <v>39</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>42</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G81" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H81" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I81" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J81" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G82" t="s">
-        <v>39</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>42</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G83" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H83" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I83" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J83" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>22</v>
-      </c>
-      <c r="G84" t="s">
-        <v>39</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>42</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G85" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H85" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I85" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J85" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>22</v>
-      </c>
-      <c r="G86" t="s">
-        <v>32</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>35</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G87" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H87" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I87" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J87" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>22</v>
-      </c>
-      <c r="G88" t="s">
-        <v>26</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>29</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G89" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H89" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I89" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>87</v>
+      </c>
+      <c r="J89" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H90" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I90" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J90" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G91" t="s">
-        <v>43</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>46</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I92" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J92" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G93" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="H93" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I93" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>124</v>
+      </c>
+      <c r="J93" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>22</v>
-      </c>
-      <c r="G94" t="s">
-        <v>43</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>46</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G95" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="H95" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I95" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>124</v>
+      </c>
+      <c r="J95" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>22</v>
-      </c>
-      <c r="G96" t="s">
-        <v>43</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>46</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G97" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="H97" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I97" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>124</v>
+      </c>
+      <c r="J97" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>22</v>
-      </c>
-      <c r="G98" t="s">
-        <v>43</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>46</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G99" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="H99" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I99" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>124</v>
+      </c>
+      <c r="J99" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>22</v>
-      </c>
-      <c r="G100" t="s">
-        <v>43</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>46</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G101" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="H101" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I101" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>124</v>
+      </c>
+      <c r="J101" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>22</v>
-      </c>
-      <c r="G102" t="s">
-        <v>26</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>29</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G103" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="H103" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I103" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>124</v>
+      </c>
+      <c r="J103" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>22</v>
-      </c>
-      <c r="G104" t="s">
-        <v>26</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>29</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G105" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="H105" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I105" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>124</v>
+      </c>
+      <c r="J105" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>22</v>
-      </c>
-      <c r="G106" t="s">
-        <v>26</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>29</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G107" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="H107" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I107" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>124</v>
+      </c>
+      <c r="J107" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>22</v>
-      </c>
-      <c r="G108" t="s">
-        <v>26</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>29</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G109" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="H109" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I109" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>124</v>
+      </c>
+      <c r="J109" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>22</v>
-      </c>
-      <c r="G110" t="s">
-        <v>26</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>29</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G111" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="H111" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I111" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>124</v>
+      </c>
+      <c r="J111" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>22</v>
-      </c>
-      <c r="G112" t="s">
-        <v>26</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>29</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G113" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="H113" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I113" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>124</v>
+      </c>
+      <c r="J113" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>22</v>
-      </c>
-      <c r="G114" t="s">
-        <v>26</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>29</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G115" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="H115" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I115" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>124</v>
+      </c>
+      <c r="J115" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>22</v>
-      </c>
-      <c r="G116" t="s">
-        <v>43</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>46</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G117" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="H117" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I117" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>124</v>
+      </c>
+      <c r="J117" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G118" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H118" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I118" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J118" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G119" t="s">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="H119" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I119" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J119" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>22</v>
-      </c>
-      <c r="G120" t="s">
-        <v>39</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>42</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G121" t="s">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="H121" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I121" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J121" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>22</v>
-      </c>
-      <c r="G122" t="s">
-        <v>26</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>29</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G123" t="s">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="H123" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I123" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J123" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>22</v>
-      </c>
-      <c r="G124" t="s">
-        <v>26</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>29</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G125" t="s">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="H125" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I125" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J125" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G126" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H126" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I126" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J126" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G127" t="s">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="H127" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="I127" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>163</v>
+      </c>
+      <c r="J127" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>22</v>
-      </c>
-      <c r="G128" t="s">
-        <v>26</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>29</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G129" t="s">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="H129" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="I129" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>163</v>
+      </c>
+      <c r="J129" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>22</v>
-      </c>
-      <c r="G130" t="s">
-        <v>26</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>29</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G131" t="s">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="H131" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="I131" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>163</v>
+      </c>
+      <c r="J131" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>22</v>
-      </c>
-      <c r="G132" t="s">
-        <v>26</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>29</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G133" t="s">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="H133" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="I133" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>163</v>
+      </c>
+      <c r="J133" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>22</v>
-      </c>
-      <c r="G134" t="s">
-        <v>26</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>29</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G135" t="s">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="H135" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="I135" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>163</v>
+      </c>
+      <c r="J135" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>22</v>
-      </c>
-      <c r="G136" t="s">
-        <v>26</v>
-      </c>
-      <c r="H136" t="s"/>
-      <c r="I136" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
+        <v>29</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G137" t="s">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="H137" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="I137" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>163</v>
+      </c>
+      <c r="J137" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>22</v>
-      </c>
-      <c r="G138" t="s">
-        <v>26</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>29</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G139" t="s">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="H139" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="I139" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>163</v>
+      </c>
+      <c r="J139" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>22</v>
-      </c>
-      <c r="G140" t="s">
-        <v>32</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>35</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G141" t="s">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="H141" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="I141" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>163</v>
+      </c>
+      <c r="J141" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G142" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H142" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I142" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J142" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G143" t="s">
-        <v>177</v>
+        <v>85</v>
       </c>
       <c r="H143" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I143" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>182</v>
+      </c>
+      <c r="J143" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>22</v>
-      </c>
-      <c r="G144" t="s">
-        <v>43</v>
-      </c>
-      <c r="H144" t="s"/>
-      <c r="I144" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
+        <v>46</v>
+      </c>
+      <c r="I144" t="s"/>
+      <c r="J144" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G145" t="s">
-        <v>177</v>
+        <v>85</v>
       </c>
       <c r="H145" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I145" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>182</v>
+      </c>
+      <c r="J145" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>22</v>
-      </c>
-      <c r="G146" t="s">
-        <v>43</v>
-      </c>
-      <c r="H146" t="s"/>
-      <c r="I146" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
+        <v>46</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G147" t="s">
-        <v>177</v>
+        <v>85</v>
       </c>
       <c r="H147" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I147" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>182</v>
+      </c>
+      <c r="J147" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>22</v>
-      </c>
-      <c r="G148" t="s">
-        <v>26</v>
-      </c>
-      <c r="H148" t="s"/>
-      <c r="I148" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G148" t="s"/>
+      <c r="H148" t="s">
+        <v>29</v>
+      </c>
+      <c r="I148" t="s"/>
+      <c r="J148" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G149" t="s">
-        <v>177</v>
+        <v>85</v>
       </c>
       <c r="H149" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I149" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>182</v>
+      </c>
+      <c r="J149" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>22</v>
-      </c>
-      <c r="G150" t="s">
-        <v>32</v>
-      </c>
-      <c r="H150" t="s"/>
-      <c r="I150" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
+        <v>35</v>
+      </c>
+      <c r="I150" t="s"/>
+      <c r="J150" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G151" t="s">
-        <v>177</v>
+        <v>85</v>
       </c>
       <c r="H151" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I151" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>182</v>
+      </c>
+      <c r="J151" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>22</v>
-      </c>
-      <c r="G152" t="s">
-        <v>39</v>
-      </c>
-      <c r="H152" t="s"/>
-      <c r="I152" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G152" t="s"/>
+      <c r="H152" t="s">
+        <v>42</v>
+      </c>
+      <c r="I152" t="s"/>
+      <c r="J152" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G153" t="s">
-        <v>177</v>
+        <v>85</v>
       </c>
       <c r="H153" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I153" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>182</v>
+      </c>
+      <c r="J153" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G154" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H154" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I154" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J154" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G155" t="s">
-        <v>192</v>
+        <v>85</v>
       </c>
       <c r="H155" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="I155" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>197</v>
+      </c>
+      <c r="J155" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>22</v>
-      </c>
-      <c r="G156" t="s">
-        <v>32</v>
-      </c>
-      <c r="H156" t="s"/>
-      <c r="I156" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G156" t="s"/>
+      <c r="H156" t="s">
+        <v>35</v>
+      </c>
+      <c r="I156" t="s"/>
+      <c r="J156" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G157" t="s">
-        <v>192</v>
+        <v>85</v>
       </c>
       <c r="H157" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="I157" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>197</v>
+      </c>
+      <c r="J157" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>22</v>
-      </c>
-      <c r="G158" t="s">
-        <v>26</v>
-      </c>
-      <c r="H158" t="s"/>
-      <c r="I158" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="G158" t="s"/>
+      <c r="H158" t="s">
+        <v>29</v>
+      </c>
+      <c r="I158" t="s"/>
+      <c r="J158" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G159" t="s">
-        <v>192</v>
+        <v>85</v>
       </c>
       <c r="H159" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="I159" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>197</v>
+      </c>
+      <c r="J159" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G160" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H160" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I160" t="s">
-        <v>199</v>
+        <v>16</v>
+      </c>
+      <c r="J160" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
